--- a/proc/ricardo/DVMax/MonkeyWaterData.xlsx
+++ b/proc/ricardo/DVMax/MonkeyWaterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Monkeys" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>cageID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>23.42-44</t>
   </si>
   <si>
-    <t>123.123012-12</t>
-  </si>
-  <si>
     <t>Bob Lob</t>
   </si>
   <si>
@@ -121,6 +118,33 @@
   </si>
   <si>
     <t>1231-112</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>ccm</t>
   </si>
 </sst>
 </file>
@@ -477,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +514,16 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +537,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,8 +577,29 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -539,42 +612,102 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +766,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -646,19 +779,16 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -666,10 +796,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -677,10 +807,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>

--- a/proc/ricardo/DVMax/MonkeyWaterData.xlsx
+++ b/proc/ricardo/DVMax/MonkeyWaterData.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Monkeys" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="2" r:id="rId2"/>
-    <sheet name="WaterCodes" sheetId="3" r:id="rId3"/>
+    <sheet name="WeekendHoliday" sheetId="4" r:id="rId3"/>
+    <sheet name="WaterCodes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>cageID</t>
   </si>
@@ -69,18 +70,6 @@
     <t>Chris</t>
   </si>
   <si>
-    <t>Becca</t>
-  </si>
-  <si>
-    <t>312-1-1-1</t>
-  </si>
-  <si>
-    <t>23.42-44</t>
-  </si>
-  <si>
-    <t>Bob Lob</t>
-  </si>
-  <si>
     <t>secondInCharge</t>
   </si>
   <si>
@@ -99,12 +88,6 @@
     <t>Steph</t>
   </si>
   <si>
-    <t>11220-131</t>
-  </si>
-  <si>
-    <t>2321-1234</t>
-  </si>
-  <si>
     <t>CC468386</t>
   </si>
   <si>
@@ -117,9 +100,6 @@
     <t>Tucker</t>
   </si>
   <si>
-    <t>1231-112</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -141,17 +121,146 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>ccm</t>
+    <t>Jango</t>
+  </si>
+  <si>
+    <t>312-622-1140</t>
+  </si>
+  <si>
+    <t>c-ethier@northwestern.edu</t>
+  </si>
+  <si>
+    <t>steph.naufel@gmail.com</t>
+  </si>
+  <si>
+    <t>650-380-3475</t>
+  </si>
+  <si>
+    <t>tuckertomlinson@gmail.com</t>
+  </si>
+  <si>
+    <t>Mihili</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>618-521-7824</t>
+  </si>
+  <si>
+    <t>pwanda@northwestern.edu</t>
+  </si>
+  <si>
+    <t>MatthewPerich2016@u.northwestern.edu</t>
+  </si>
+  <si>
+    <t>Mr. Teeny</t>
+  </si>
+  <si>
+    <t>304-657-8453</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Raeed</t>
+  </si>
+  <si>
+    <t>573-465-7672</t>
+  </si>
+  <si>
+    <t>rhcggb@gmail.com</t>
+  </si>
+  <si>
+    <t>Chewie</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>516-395-6974</t>
+  </si>
+  <si>
+    <t>MichaelScheid2015@u.northwestern.edu</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>BrianFranco2015@u.northwestern.edu</t>
+  </si>
+  <si>
+    <t>Lando</t>
+  </si>
+  <si>
+    <t>BrianF</t>
+  </si>
+  <si>
+    <t>CC557938</t>
+  </si>
+  <si>
+    <t>CC557937</t>
+  </si>
+  <si>
+    <t>CC436231</t>
+  </si>
+  <si>
+    <t>CC599139</t>
+  </si>
+  <si>
+    <t>CC436229</t>
+  </si>
+  <si>
+    <t>CC436228</t>
+  </si>
+  <si>
+    <t>CC634939</t>
+  </si>
+  <si>
+    <t>CC634938</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>CageCard</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>8I2</t>
+  </si>
+  <si>
+    <t>12A1</t>
+  </si>
+  <si>
+    <t>12A3</t>
+  </si>
+  <si>
+    <t>7H1</t>
+  </si>
+  <si>
+    <t>9I4</t>
+  </si>
+  <si>
+    <t>12H1</t>
+  </si>
+  <si>
+    <t>13B1</t>
+  </si>
+  <si>
+    <t>13B2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,21 +277,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,19 +347,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -501,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +770,7 @@
     <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,178 +784,236 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,9 +1034,10 @@
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -742,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -753,84 +1059,457 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId2" display="tel:573-465-7672"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9">
+        <v>41626</v>
+      </c>
+      <c r="D2" s="9">
+        <v>41627</v>
+      </c>
+      <c r="E2" s="9">
+        <v>41628</v>
+      </c>
+      <c r="F2" s="9">
+        <v>41629</v>
+      </c>
+      <c r="G2" s="9">
+        <v>41630</v>
+      </c>
+      <c r="H2" s="9">
+        <v>41631</v>
+      </c>
+      <c r="I2" s="9">
+        <v>41632</v>
+      </c>
+      <c r="J2" s="10">
+        <v>41633</v>
+      </c>
+      <c r="K2" s="9">
+        <v>41634</v>
+      </c>
+      <c r="L2" s="9">
+        <v>41635</v>
+      </c>
+      <c r="M2" s="9">
+        <v>41636</v>
+      </c>
+      <c r="N2" s="9">
+        <v>41637</v>
+      </c>
+      <c r="O2" s="9">
+        <v>41638</v>
+      </c>
+      <c r="P2" s="9">
+        <v>41639</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>41640</v>
+      </c>
+      <c r="R2" s="9">
+        <v>41641</v>
+      </c>
+      <c r="S2" s="9">
+        <v>41642</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
